--- a/Cronograma/Cronograma - Projeto Aplicado III.xlsx
+++ b/Cronograma/Cronograma - Projeto Aplicado III.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -136,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
@@ -221,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -390,11 +395,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,41 +455,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,12 +481,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -532,104 +548,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2EF24F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -645,6 +563,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -652,7 +573,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -690,9 +611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -938,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,120 +891,120 @@
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="23"/>
-      <c r="BS3" s="23"/>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
-      <c r="BV3" s="23"/>
-      <c r="BW3" s="23"/>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="BZ3" s="23"/>
-      <c r="CA3" s="23"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="23"/>
-      <c r="CE3" s="23"/>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="24" t="s">
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
-      <c r="CS3" s="24"/>
-      <c r="CT3" s="24"/>
-      <c r="CU3" s="24"/>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="24"/>
-      <c r="CX3" s="24"/>
-      <c r="CY3" s="24"/>
-      <c r="CZ3" s="24"/>
-      <c r="DA3" s="24"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="24"/>
-      <c r="DD3" s="24"/>
-      <c r="DE3" s="24"/>
-      <c r="DF3" s="24"/>
-      <c r="DG3" s="24"/>
-      <c r="DH3" s="24"/>
-      <c r="DI3" s="24"/>
-      <c r="DJ3" s="24"/>
-      <c r="DK3" s="24"/>
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="31"/>
+      <c r="CJ3" s="31"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="31"/>
+      <c r="CN3" s="31"/>
+      <c r="CO3" s="31"/>
+      <c r="CP3" s="31"/>
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="31"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="31"/>
+      <c r="CV3" s="31"/>
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="31"/>
+      <c r="DB3" s="31"/>
+      <c r="DC3" s="31"/>
+      <c r="DD3" s="31"/>
+      <c r="DE3" s="31"/>
+      <c r="DF3" s="31"/>
+      <c r="DG3" s="31"/>
+      <c r="DH3" s="31"/>
+      <c r="DI3" s="31"/>
+      <c r="DJ3" s="31"/>
+      <c r="DK3" s="31"/>
     </row>
     <row r="4" spans="1:115" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1433,10 +1354,10 @@
       </c>
     </row>
     <row r="5" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1568,8 +1489,8 @@
       <c r="DK5" s="9"/>
     </row>
     <row r="6" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,8 +1619,8 @@
       <c r="DK6" s="9"/>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1829,8 +1750,8 @@
       <c r="DK7" s="9"/>
     </row>
     <row r="8" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1960,9 +1881,9 @@
       <c r="DK8" s="9"/>
     </row>
     <row r="9" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2001,34 +1922,34 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
       <c r="BD9" s="8"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
@@ -2091,13 +2012,13 @@
       <c r="DK9" s="9"/>
     </row>
     <row r="10" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2137,34 +2058,34 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
       <c r="BD10" s="8"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
@@ -2227,9 +2148,9 @@
       <c r="DK10" s="9"/>
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2269,34 +2190,34 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
@@ -2359,8 +2280,8 @@
       <c r="DK11" s="9"/>
     </row>
     <row r="12" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2414,21 +2335,21 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="8"/>
@@ -2491,9 +2412,9 @@
       <c r="DK12" s="9"/>
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2546,21 +2467,21 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
@@ -2623,9 +2544,9 @@
       <c r="DK13" s="9"/>
     </row>
     <row r="14" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2678,21 +2599,21 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="17"/>
       <c r="BD14" s="8"/>
       <c r="BE14" s="8"/>
       <c r="BF14" s="8"/>
@@ -2755,10 +2676,10 @@
       <c r="DK14" s="9"/>
     </row>
     <row r="15" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2814,21 +2735,21 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
       <c r="BF15" s="8"/>
@@ -2891,8 +2812,8 @@
       <c r="DK15" s="9"/>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
@@ -2946,21 +2867,21 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
       <c r="BD16" s="8"/>
       <c r="BE16" s="8"/>
       <c r="BF16" s="8"/>
@@ -3023,24 +2944,24 @@
       <c r="DK16" s="9"/>
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="25">
         <v>45750</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>45780</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -3149,29 +3070,29 @@
       <c r="DK17" s="9"/>
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="39">
         <v>4</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="28">
         <v>45779</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="29">
         <v>11</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="28">
         <v>45429</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -3285,25 +3206,25 @@
       <c r="DK18" s="9"/>
     </row>
     <row r="19" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="28">
         <v>45779</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="28">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="29">
         <v>10</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="28">
         <v>45429</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -3417,25 +3338,25 @@
       <c r="DK19" s="9"/>
     </row>
     <row r="20" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="28">
         <v>45779</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="29">
         <v>8</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="28">
         <v>45429</v>
       </c>
       <c r="I20" s="13" t="s">
@@ -3562,11 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J3:W3"/>
-    <mergeCell ref="X3:BB3"/>
-    <mergeCell ref="BC3:CF3"/>
-    <mergeCell ref="CG3:DK3"/>
-    <mergeCell ref="B5:B9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -3574,13 +3490,18 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X3:BB3"/>
+    <mergeCell ref="BC3:CF3"/>
+    <mergeCell ref="CG3:DK3"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:I20">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>EVEN(ROW())=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:DK5 AC6:DK6 J10:DK20 J6:N9 AB7:DK9">
+  <conditionalFormatting sqref="W5:DK5 AC6:DK6 J6:N9 AB7:DK9 J12:AS13 J10:AA11 J16:DK20 J14:AN15 BD10:DK15">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND($I5="Programado",$E5&lt;=J$4,$F5&gt;=J$4)</formula>
     </cfRule>
